--- a/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,12 @@
     <t>['42', '46', '65']</t>
   </si>
   <si>
+    <t>['19', '27', '32', '63', '78']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['44', '70', '79']</t>
   </si>
   <si>
@@ -931,9 +937,6 @@
     <t>['5', '14']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -1112,6 +1115,12 @@
   </si>
   <si>
     <t>['40', '45', '90']</t>
+  </si>
+  <si>
+    <t>['9', '38']</t>
+  </si>
+  <si>
+    <t>['39', '83']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1908,7 +1917,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2377,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT5">
         <v>1.36</v>
@@ -2481,7 +2490,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2672,7 +2681,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -3054,7 +3063,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3245,7 +3254,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3523,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT11">
         <v>1.29</v>
@@ -3818,7 +3827,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4009,7 +4018,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4099,7 +4108,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4200,7 +4209,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4582,7 +4591,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4672,7 +4681,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4773,7 +4782,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5155,7 +5164,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5346,7 +5355,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5436,7 +5445,7 @@
         <v>1.27</v>
       </c>
       <c r="AT21">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>1.62</v>
@@ -5537,7 +5546,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5815,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT23">
         <v>1.6</v>
@@ -6110,7 +6119,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6197,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT25">
         <v>0.73</v>
@@ -6492,7 +6501,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6683,7 +6692,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7065,7 +7074,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -7155,7 +7164,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU30">
         <v>1.63</v>
@@ -7256,7 +7265,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7447,7 +7456,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -7638,7 +7647,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7829,7 +7838,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7919,7 +7928,7 @@
         <v>2.5</v>
       </c>
       <c r="AT34">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>1.94</v>
@@ -8020,7 +8029,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8211,7 +8220,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8298,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT36">
         <v>1.64</v>
@@ -8402,7 +8411,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8593,7 +8602,7 @@
         <v>97</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8784,7 +8793,7 @@
         <v>97</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8871,7 +8880,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT39">
         <v>1.53</v>
@@ -9357,7 +9366,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>13</v>
@@ -9739,7 +9748,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10503,7 +10512,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10694,7 +10703,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10972,7 +10981,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT50">
         <v>1.47</v>
@@ -11076,7 +11085,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11354,7 +11363,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT52">
         <v>1.07</v>
@@ -11458,7 +11467,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11649,7 +11658,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11840,7 +11849,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>12</v>
@@ -12031,7 +12040,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12121,7 +12130,7 @@
         <v>1.86</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU56">
         <v>0.9</v>
@@ -12222,7 +12231,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12413,7 +12422,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12795,7 +12804,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12885,7 +12894,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -12986,7 +12995,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13177,7 +13186,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13368,7 +13377,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13750,7 +13759,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13941,7 +13950,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14028,7 +14037,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
         <v>1.07</v>
@@ -14323,7 +14332,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14410,7 +14419,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT68">
         <v>1.53</v>
@@ -14795,7 +14804,7 @@
         <v>2.07</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU70">
         <v>2.15</v>
@@ -14896,7 +14905,7 @@
         <v>97</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15660,7 +15669,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q75">
         <v>11</v>
@@ -15747,7 +15756,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15851,7 +15860,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16132,7 +16141,7 @@
         <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU77">
         <v>1.78</v>
@@ -16233,7 +16242,7 @@
         <v>142</v>
       </c>
       <c r="P78" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16424,7 +16433,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16615,7 +16624,7 @@
         <v>97</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16705,7 +16714,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU80">
         <v>1.7</v>
@@ -16806,7 +16815,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16997,7 +17006,7 @@
         <v>97</v>
       </c>
       <c r="P82" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>8</v>
@@ -17379,7 +17388,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -17466,7 +17475,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
         <v>1.07</v>
@@ -17570,7 +17579,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18143,7 +18152,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18334,7 +18343,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18525,7 +18534,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18612,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18716,7 +18725,7 @@
         <v>97</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18907,7 +18916,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19098,7 +19107,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19379,7 +19388,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19480,7 +19489,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19567,7 +19576,7 @@
         <v>1.2</v>
       </c>
       <c r="AS95">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT95">
         <v>0.57</v>
@@ -19952,7 +19961,7 @@
         <v>2.07</v>
       </c>
       <c r="AT97">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU97">
         <v>1.92</v>
@@ -20817,7 +20826,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -21008,7 +21017,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21199,7 +21208,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21390,7 +21399,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21581,7 +21590,7 @@
         <v>97</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21668,7 +21677,7 @@
         <v>0.67</v>
       </c>
       <c r="AS106">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT106">
         <v>1.07</v>
@@ -21772,7 +21781,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22345,7 +22354,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22727,7 +22736,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22817,7 +22826,7 @@
         <v>1.53</v>
       </c>
       <c r="AT112">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU112">
         <v>1.66</v>
@@ -22918,7 +22927,7 @@
         <v>147</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23008,7 +23017,7 @@
         <v>1.2</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU113">
         <v>1.53</v>
@@ -23300,7 +23309,7 @@
         <v>145</v>
       </c>
       <c r="P115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23491,7 +23500,7 @@
         <v>97</v>
       </c>
       <c r="P116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23682,7 +23691,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -24151,7 +24160,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
         <v>1.47</v>
@@ -24255,7 +24264,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24637,7 +24646,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24828,7 +24837,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24918,7 +24927,7 @@
         <v>1.21</v>
       </c>
       <c r="AT123">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU123">
         <v>1.48</v>
@@ -25019,7 +25028,7 @@
         <v>102</v>
       </c>
       <c r="P124" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25210,7 +25219,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25300,7 +25309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25783,7 +25792,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25974,7 +25983,7 @@
         <v>97</v>
       </c>
       <c r="P129" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -26165,7 +26174,7 @@
         <v>97</v>
       </c>
       <c r="P130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26252,7 +26261,7 @@
         <v>2.13</v>
       </c>
       <c r="AS130">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
         <v>1.6</v>
@@ -26356,7 +26365,7 @@
         <v>97</v>
       </c>
       <c r="P131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26825,7 +26834,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT133">
         <v>0.57</v>
@@ -27120,7 +27129,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27311,7 +27320,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27502,7 +27511,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27693,7 +27702,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q138">
         <v>9</v>
@@ -28165,7 +28174,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU140">
         <v>1.77</v>
@@ -28457,7 +28466,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28547,7 +28556,7 @@
         <v>1.67</v>
       </c>
       <c r="AT142">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU142">
         <v>1.61</v>
@@ -28648,7 +28657,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -29221,7 +29230,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29308,7 +29317,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT146">
         <v>1.21</v>
@@ -29412,7 +29421,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29794,7 +29803,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -30367,7 +30376,7 @@
         <v>192</v>
       </c>
       <c r="P152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30839,7 +30848,7 @@
         <v>1.86</v>
       </c>
       <c r="AT154">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU154">
         <v>1.25</v>
@@ -30940,7 +30949,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31030,7 +31039,7 @@
         <v>1.21</v>
       </c>
       <c r="AT155">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU155">
         <v>1.63</v>
@@ -31131,7 +31140,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q156">
         <v>15</v>
@@ -31218,7 +31227,7 @@
         <v>0.67</v>
       </c>
       <c r="AS156">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT156">
         <v>0.64</v>
@@ -31704,7 +31713,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31895,7 +31904,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -32086,7 +32095,7 @@
         <v>97</v>
       </c>
       <c r="P161" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32277,7 +32286,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32364,7 +32373,7 @@
         <v>1.78</v>
       </c>
       <c r="AS162">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT162">
         <v>1.64</v>
@@ -33041,7 +33050,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33232,7 +33241,7 @@
         <v>190</v>
       </c>
       <c r="P167" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33423,7 +33432,7 @@
         <v>202</v>
       </c>
       <c r="P168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q168">
         <v>8</v>
@@ -33614,7 +33623,7 @@
         <v>178</v>
       </c>
       <c r="P169" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33704,7 +33713,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU169">
         <v>1.43</v>
@@ -33805,7 +33814,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33996,7 +34005,7 @@
         <v>97</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34187,7 +34196,7 @@
         <v>204</v>
       </c>
       <c r="P172" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34569,7 +34578,7 @@
         <v>205</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34760,7 +34769,7 @@
         <v>97</v>
       </c>
       <c r="P175" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q175">
         <v>1</v>
@@ -34847,10 +34856,10 @@
         <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT175">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -34951,7 +34960,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -35142,7 +35151,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35229,7 +35238,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT177">
         <v>1.07</v>
@@ -35524,7 +35533,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35906,7 +35915,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35996,7 +36005,7 @@
         <v>1.2</v>
       </c>
       <c r="AT181">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU181">
         <v>1.75</v>
@@ -36288,7 +36297,7 @@
         <v>211</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36375,7 +36384,7 @@
         <v>1.18</v>
       </c>
       <c r="AS183">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT183">
         <v>1.21</v>
@@ -36670,7 +36679,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q185">
         <v>12</v>
@@ -36861,7 +36870,7 @@
         <v>214</v>
       </c>
       <c r="P186" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36948,7 +36957,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT186">
         <v>1.36</v>
@@ -37243,7 +37252,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37333,7 +37342,7 @@
         <v>1.21</v>
       </c>
       <c r="AT188">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU188">
         <v>1.51</v>
@@ -37434,7 +37443,7 @@
         <v>216</v>
       </c>
       <c r="P189" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -38007,7 +38016,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38198,7 +38207,7 @@
         <v>220</v>
       </c>
       <c r="P193" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38389,7 +38398,7 @@
         <v>97</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>8</v>
@@ -38771,7 +38780,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q196">
         <v>13</v>
@@ -39153,7 +39162,7 @@
         <v>97</v>
       </c>
       <c r="P198" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39535,7 +39544,7 @@
         <v>151</v>
       </c>
       <c r="P200" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39622,10 +39631,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT200">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU200">
         <v>1.57</v>
@@ -39816,7 +39825,7 @@
         <v>1.79</v>
       </c>
       <c r="AT201">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU201">
         <v>1.81</v>
@@ -39917,7 +39926,7 @@
         <v>224</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40108,7 +40117,7 @@
         <v>225</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -40681,7 +40690,7 @@
         <v>97</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40872,7 +40881,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41063,7 +41072,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q208">
         <v>5</v>
@@ -41254,7 +41263,7 @@
         <v>227</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41445,7 +41454,7 @@
         <v>97</v>
       </c>
       <c r="P210" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41535,7 +41544,7 @@
         <v>1.53</v>
       </c>
       <c r="AT210">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU210">
         <v>1.59</v>
@@ -41636,7 +41645,7 @@
         <v>110</v>
       </c>
       <c r="P211" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41723,7 +41732,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS211">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT211">
         <v>0.73</v>
@@ -41827,7 +41836,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42108,7 +42117,7 @@
         <v>1.2</v>
       </c>
       <c r="AT213">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU213">
         <v>1.44</v>
@@ -42400,7 +42409,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42487,7 +42496,7 @@
         <v>1.17</v>
       </c>
       <c r="AS215">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT215">
         <v>1.07</v>
@@ -42591,7 +42600,7 @@
         <v>229</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q216">
         <v>2</v>
@@ -43355,7 +43364,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -43737,7 +43746,7 @@
         <v>190</v>
       </c>
       <c r="P222" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -43928,7 +43937,7 @@
         <v>233</v>
       </c>
       <c r="P223" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -44119,7 +44128,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44692,7 +44701,7 @@
         <v>97</v>
       </c>
       <c r="P227" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -45074,7 +45083,7 @@
         <v>237</v>
       </c>
       <c r="P229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45456,7 +45465,7 @@
         <v>239</v>
       </c>
       <c r="P231" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q231">
         <v>7</v>
@@ -45598,6 +45607,388 @@
       </c>
       <c r="BK231">
         <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1568878</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>74</v>
+      </c>
+      <c r="H232" t="s">
+        <v>65</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>5</v>
+      </c>
+      <c r="L232">
+        <v>5</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>7</v>
+      </c>
+      <c r="O232" t="s">
+        <v>240</v>
+      </c>
+      <c r="P232" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q232">
+        <v>6</v>
+      </c>
+      <c r="R232">
+        <v>6</v>
+      </c>
+      <c r="S232">
+        <v>12</v>
+      </c>
+      <c r="T232">
+        <v>3.29</v>
+      </c>
+      <c r="U232">
+        <v>2.36</v>
+      </c>
+      <c r="V232">
+        <v>3.01</v>
+      </c>
+      <c r="W232">
+        <v>1.32</v>
+      </c>
+      <c r="X232">
+        <v>3.26</v>
+      </c>
+      <c r="Y232">
+        <v>2.55</v>
+      </c>
+      <c r="Z232">
+        <v>1.51</v>
+      </c>
+      <c r="AA232">
+        <v>5.85</v>
+      </c>
+      <c r="AB232">
+        <v>1.12</v>
+      </c>
+      <c r="AC232">
+        <v>2.7</v>
+      </c>
+      <c r="AD232">
+        <v>3.45</v>
+      </c>
+      <c r="AE232">
+        <v>2.38</v>
+      </c>
+      <c r="AF232">
+        <v>1.03</v>
+      </c>
+      <c r="AG232">
+        <v>15.75</v>
+      </c>
+      <c r="AH232">
+        <v>1.19</v>
+      </c>
+      <c r="AI232">
+        <v>4.27</v>
+      </c>
+      <c r="AJ232">
+        <v>1.67</v>
+      </c>
+      <c r="AK232">
+        <v>2.23</v>
+      </c>
+      <c r="AL232">
+        <v>1.57</v>
+      </c>
+      <c r="AM232">
+        <v>2.36</v>
+      </c>
+      <c r="AN232">
+        <v>1.55</v>
+      </c>
+      <c r="AO232">
+        <v>1.29</v>
+      </c>
+      <c r="AP232">
+        <v>1.45</v>
+      </c>
+      <c r="AQ232">
+        <v>1.14</v>
+      </c>
+      <c r="AR232">
+        <v>1.29</v>
+      </c>
+      <c r="AS232">
+        <v>1.27</v>
+      </c>
+      <c r="AT232">
+        <v>1.2</v>
+      </c>
+      <c r="AU232">
+        <v>1.52</v>
+      </c>
+      <c r="AV232">
+        <v>1.3</v>
+      </c>
+      <c r="AW232">
+        <v>2.82</v>
+      </c>
+      <c r="AX232">
+        <v>2.15</v>
+      </c>
+      <c r="AY232">
+        <v>5.75</v>
+      </c>
+      <c r="AZ232">
+        <v>1.83</v>
+      </c>
+      <c r="BA232">
+        <v>1.35</v>
+      </c>
+      <c r="BB232">
+        <v>1.28</v>
+      </c>
+      <c r="BC232">
+        <v>1.55</v>
+      </c>
+      <c r="BD232">
+        <v>1.85</v>
+      </c>
+      <c r="BE232">
+        <v>2.47</v>
+      </c>
+      <c r="BF232">
+        <v>13</v>
+      </c>
+      <c r="BG232">
+        <v>9</v>
+      </c>
+      <c r="BH232">
+        <v>9</v>
+      </c>
+      <c r="BI232">
+        <v>8</v>
+      </c>
+      <c r="BJ232">
+        <v>22</v>
+      </c>
+      <c r="BK232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1568884</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>68</v>
+      </c>
+      <c r="H233" t="s">
+        <v>66</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233" t="s">
+        <v>241</v>
+      </c>
+      <c r="P233" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q233">
+        <v>5</v>
+      </c>
+      <c r="R233">
+        <v>4</v>
+      </c>
+      <c r="S233">
+        <v>9</v>
+      </c>
+      <c r="T233">
+        <v>3.11</v>
+      </c>
+      <c r="U233">
+        <v>2.45</v>
+      </c>
+      <c r="V233">
+        <v>3.03</v>
+      </c>
+      <c r="W233">
+        <v>1.27</v>
+      </c>
+      <c r="X233">
+        <v>3.25</v>
+      </c>
+      <c r="Y233">
+        <v>2.2</v>
+      </c>
+      <c r="Z233">
+        <v>1.55</v>
+      </c>
+      <c r="AA233">
+        <v>4.95</v>
+      </c>
+      <c r="AB233">
+        <v>1.14</v>
+      </c>
+      <c r="AC233">
+        <v>2.63</v>
+      </c>
+      <c r="AD233">
+        <v>3.5</v>
+      </c>
+      <c r="AE233">
+        <v>2.43</v>
+      </c>
+      <c r="AF233">
+        <v>1.02</v>
+      </c>
+      <c r="AG233">
+        <v>16</v>
+      </c>
+      <c r="AH233">
+        <v>1.16</v>
+      </c>
+      <c r="AI233">
+        <v>4.75</v>
+      </c>
+      <c r="AJ233">
+        <v>1.58</v>
+      </c>
+      <c r="AK233">
+        <v>2.38</v>
+      </c>
+      <c r="AL233">
+        <v>1.49</v>
+      </c>
+      <c r="AM233">
+        <v>2.54</v>
+      </c>
+      <c r="AN233">
+        <v>1.53</v>
+      </c>
+      <c r="AO233">
+        <v>1.28</v>
+      </c>
+      <c r="AP233">
+        <v>1.47</v>
+      </c>
+      <c r="AQ233">
+        <v>1.71</v>
+      </c>
+      <c r="AR233">
+        <v>1.5</v>
+      </c>
+      <c r="AS233">
+        <v>1.6</v>
+      </c>
+      <c r="AT233">
+        <v>1.6</v>
+      </c>
+      <c r="AU233">
+        <v>1.55</v>
+      </c>
+      <c r="AV233">
+        <v>1.47</v>
+      </c>
+      <c r="AW233">
+        <v>3.02</v>
+      </c>
+      <c r="AX233">
+        <v>2.04</v>
+      </c>
+      <c r="AY233">
+        <v>7.8</v>
+      </c>
+      <c r="AZ233">
+        <v>2.13</v>
+      </c>
+      <c r="BA233">
+        <v>1.17</v>
+      </c>
+      <c r="BB233">
+        <v>1.29</v>
+      </c>
+      <c r="BC233">
+        <v>1.57</v>
+      </c>
+      <c r="BD233">
+        <v>1.98</v>
+      </c>
+      <c r="BE233">
+        <v>2.53</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>8</v>
+      </c>
+      <c r="BH233">
+        <v>2</v>
+      </c>
+      <c r="BI233">
+        <v>5</v>
+      </c>
+      <c r="BJ233">
+        <v>8</v>
+      </c>
+      <c r="BK233">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,18 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['45+4', '70', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['20', '74']</t>
+  </si>
+  <si>
+    <t>['8', '58']</t>
+  </si>
+  <si>
     <t>['44', '70', '79']</t>
   </si>
   <si>
@@ -1122,6 +1134,18 @@
   <si>
     <t>['39', '83']</t>
   </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['65', '89']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1482,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1750,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1813,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1917,7 +1941,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2004,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT3">
         <v>1.07</v>
@@ -2198,7 +2222,7 @@
         <v>1.53</v>
       </c>
       <c r="AT4">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2389,7 +2413,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2490,7 +2514,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2577,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>1.47</v>
@@ -2681,7 +2705,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2768,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT7">
         <v>1.53</v>
@@ -3063,7 +3087,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3254,7 +3278,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3344,7 +3368,7 @@
         <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3535,7 +3559,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3723,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3827,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3914,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4018,7 +4042,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4209,7 +4233,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4296,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT15">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4487,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT16">
         <v>0.73</v>
@@ -4591,7 +4615,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4782,7 +4806,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4869,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU18">
         <v>2.15</v>
@@ -5164,7 +5188,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5251,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT20">
         <v>1.47</v>
@@ -5355,7 +5379,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5546,7 +5570,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -6119,7 +6143,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6397,10 +6421,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
         <v>1.97</v>
@@ -6501,7 +6525,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6588,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU27">
         <v>1.64</v>
@@ -6692,7 +6716,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6782,7 +6806,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.12</v>
@@ -6970,10 +6994,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT29">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU29">
         <v>1.47</v>
@@ -7074,7 +7098,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -7265,7 +7289,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7352,10 +7376,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT31">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU31">
         <v>1.1</v>
@@ -7456,7 +7480,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -7543,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
         <v>1.07</v>
@@ -7647,7 +7671,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7838,7 +7862,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7925,7 +7949,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT34">
         <v>1.2</v>
@@ -8029,7 +8053,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8220,7 +8244,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8310,7 +8334,7 @@
         <v>1.6</v>
       </c>
       <c r="AT36">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU36">
         <v>1.71</v>
@@ -8411,7 +8435,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8498,7 +8522,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.07</v>
@@ -8602,7 +8626,7 @@
         <v>97</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8692,7 +8716,7 @@
         <v>1.2</v>
       </c>
       <c r="AT38">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.48</v>
@@ -8793,7 +8817,7 @@
         <v>97</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9262,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT41">
         <v>0.73</v>
@@ -9366,7 +9390,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>13</v>
@@ -9453,10 +9477,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT42">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9644,10 +9668,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU43">
         <v>2.1</v>
@@ -9748,7 +9772,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10029,7 +10053,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU45">
         <v>1.54</v>
@@ -10220,7 +10244,7 @@
         <v>1.2</v>
       </c>
       <c r="AT46">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>0.86</v>
@@ -10512,7 +10536,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10599,7 +10623,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT48">
         <v>1.6</v>
@@ -10703,7 +10727,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10790,7 +10814,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -11085,7 +11109,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11467,7 +11491,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11554,10 +11578,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU53">
         <v>1.37</v>
@@ -11658,7 +11682,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11745,10 +11769,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT54">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>2.12</v>
@@ -11849,7 +11873,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>12</v>
@@ -11939,7 +11963,7 @@
         <v>1.53</v>
       </c>
       <c r="AT55">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.61</v>
@@ -12040,7 +12064,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12127,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT56">
         <v>1.6</v>
@@ -12231,7 +12255,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12318,10 +12342,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU57">
         <v>1.71</v>
@@ -12422,7 +12446,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12700,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
         <v>1.07</v>
@@ -12804,7 +12828,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12891,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT60">
         <v>1.2</v>
@@ -12995,7 +13019,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13085,7 +13109,7 @@
         <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU61">
         <v>1.45</v>
@@ -13186,7 +13210,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13276,7 +13300,7 @@
         <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU62">
         <v>1.48</v>
@@ -13377,7 +13401,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13464,7 +13488,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT63">
         <v>0.73</v>
@@ -13658,7 +13682,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -13759,7 +13783,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13846,7 +13870,7 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>1.6</v>
@@ -13950,7 +13974,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14228,10 +14252,10 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT67">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU67">
         <v>1.04</v>
@@ -14332,7 +14356,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14613,7 +14637,7 @@
         <v>1.4</v>
       </c>
       <c r="AT69">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>1.83</v>
@@ -14801,7 +14825,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT70">
         <v>1.6</v>
@@ -14905,7 +14929,7 @@
         <v>97</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14995,7 +15019,7 @@
         <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15183,10 +15207,10 @@
         <v>0.25</v>
       </c>
       <c r="AS72">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU72">
         <v>1.56</v>
@@ -15374,7 +15398,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT73">
         <v>1.47</v>
@@ -15568,7 +15592,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU74">
         <v>1.59</v>
@@ -15669,7 +15693,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>11</v>
@@ -15860,7 +15884,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15947,7 +15971,7 @@
         <v>2.6</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
         <v>1.6</v>
@@ -16138,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>1.2</v>
@@ -16242,7 +16266,7 @@
         <v>142</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16433,7 +16457,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16523,7 +16547,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.49</v>
@@ -16624,7 +16648,7 @@
         <v>97</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16815,7 +16839,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17006,7 +17030,7 @@
         <v>97</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q82">
         <v>8</v>
@@ -17093,7 +17117,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT82">
         <v>1.07</v>
@@ -17287,7 +17311,7 @@
         <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17388,7 +17412,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -17478,7 +17502,7 @@
         <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.31</v>
@@ -17579,7 +17603,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17666,7 +17690,7 @@
         <v>2.4</v>
       </c>
       <c r="AS85">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT85">
         <v>1.53</v>
@@ -17857,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT86">
         <v>1.07</v>
@@ -18152,7 +18176,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18239,10 +18263,10 @@
         <v>0.4</v>
       </c>
       <c r="AS88">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT88">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU88">
         <v>1.46</v>
@@ -18343,7 +18367,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18430,10 +18454,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU89">
         <v>2.05</v>
@@ -18534,7 +18558,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18725,7 +18749,7 @@
         <v>97</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18812,10 +18836,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU91">
         <v>1.59</v>
@@ -18916,7 +18940,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19003,7 +19027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS92">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT92">
         <v>1.47</v>
@@ -19107,7 +19131,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19194,10 +19218,10 @@
         <v>1.6</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT93">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -19489,7 +19513,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19579,7 +19603,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU95">
         <v>1.48</v>
@@ -19958,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT97">
         <v>1.2</v>
@@ -20149,10 +20173,10 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT98">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -20531,7 +20555,7 @@
         <v>0.29</v>
       </c>
       <c r="AS100">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT100">
         <v>0.73</v>
@@ -20826,7 +20850,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20913,10 +20937,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT102">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>1.24</v>
@@ -21017,7 +21041,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21107,7 +21131,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -21208,7 +21232,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21295,7 +21319,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT104">
         <v>1.6</v>
@@ -21399,7 +21423,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21489,7 +21513,7 @@
         <v>1.4</v>
       </c>
       <c r="AT105">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>1.74</v>
@@ -21590,7 +21614,7 @@
         <v>97</v>
       </c>
       <c r="P106" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21868,10 +21892,10 @@
         <v>1.83</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT107">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU107">
         <v>1.37</v>
@@ -22059,7 +22083,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT108">
         <v>1.53</v>
@@ -22250,7 +22274,7 @@
         <v>1.29</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22354,7 +22378,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22441,10 +22465,10 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT110">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.96</v>
@@ -22635,7 +22659,7 @@
         <v>1.67</v>
       </c>
       <c r="AT111">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU111">
         <v>1.56</v>
@@ -22736,7 +22760,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22927,7 +22951,7 @@
         <v>147</v>
       </c>
       <c r="P113" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23205,7 +23229,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT114">
         <v>0.73</v>
@@ -23309,7 +23333,7 @@
         <v>145</v>
       </c>
       <c r="P115" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23500,7 +23524,7 @@
         <v>97</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23587,10 +23611,10 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT116">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU116">
         <v>1.44</v>
@@ -23691,7 +23715,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23778,10 +23802,10 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT117">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU117">
         <v>1.85</v>
@@ -23972,7 +23996,7 @@
         <v>1.4</v>
       </c>
       <c r="AT118">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU118">
         <v>1.7</v>
@@ -24264,7 +24288,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24351,10 +24375,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT120">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24646,7 +24670,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24736,7 +24760,7 @@
         <v>1.53</v>
       </c>
       <c r="AT122">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU122">
         <v>1.7</v>
@@ -24837,7 +24861,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24924,7 +24948,7 @@
         <v>0.71</v>
       </c>
       <c r="AS123">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT123">
         <v>1.2</v>
@@ -25028,7 +25052,7 @@
         <v>102</v>
       </c>
       <c r="P124" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25118,7 +25142,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU124">
         <v>1.64</v>
@@ -25219,7 +25243,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25306,7 +25330,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT125">
         <v>1.6</v>
@@ -25500,7 +25524,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -25688,7 +25712,7 @@
         <v>1.13</v>
       </c>
       <c r="AS127">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25792,7 +25816,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25879,7 +25903,7 @@
         <v>1.88</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT128">
         <v>1.53</v>
@@ -25983,7 +26007,7 @@
         <v>97</v>
       </c>
       <c r="P129" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -26073,7 +26097,7 @@
         <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU129">
         <v>1.55</v>
@@ -26174,7 +26198,7 @@
         <v>97</v>
       </c>
       <c r="P130" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26365,7 +26389,7 @@
         <v>97</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26452,7 +26476,7 @@
         <v>1.75</v>
       </c>
       <c r="AS131">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT131">
         <v>1.47</v>
@@ -26837,7 +26861,7 @@
         <v>1.27</v>
       </c>
       <c r="AT133">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU133">
         <v>1.5</v>
@@ -27025,7 +27049,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT134">
         <v>1.07</v>
@@ -27129,7 +27153,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27216,7 +27240,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT135">
         <v>1.07</v>
@@ -27320,7 +27344,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27407,10 +27431,10 @@
         <v>1.5</v>
       </c>
       <c r="AS136">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT136">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
         <v>1.8</v>
@@ -27511,7 +27535,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27601,7 +27625,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.46</v>
@@ -27702,7 +27726,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q138">
         <v>9</v>
@@ -27789,7 +27813,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27980,10 +28004,10 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT139">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU139">
         <v>1.85</v>
@@ -28171,7 +28195,7 @@
         <v>0.75</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
         <v>1.6</v>
@@ -28365,7 +28389,7 @@
         <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU141">
         <v>1.66</v>
@@ -28466,7 +28490,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28657,7 +28681,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28747,7 +28771,7 @@
         <v>1.53</v>
       </c>
       <c r="AT143">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU143">
         <v>1.63</v>
@@ -28935,7 +28959,7 @@
         <v>1.78</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT144">
         <v>1.53</v>
@@ -29129,7 +29153,7 @@
         <v>1.2</v>
       </c>
       <c r="AT145">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -29230,7 +29254,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29320,7 +29344,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU146">
         <v>1.49</v>
@@ -29421,7 +29445,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29508,7 +29532,7 @@
         <v>2.22</v>
       </c>
       <c r="AS147">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT147">
         <v>1.6</v>
@@ -29702,7 +29726,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU148">
         <v>1.65</v>
@@ -29803,7 +29827,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29890,7 +29914,7 @@
         <v>0.3</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT149">
         <v>0.73</v>
@@ -30081,10 +30105,10 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT150">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.82</v>
@@ -30376,7 +30400,7 @@
         <v>192</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30463,10 +30487,10 @@
         <v>1.56</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT152">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU152">
         <v>1.79</v>
@@ -30654,7 +30678,7 @@
         <v>0.88</v>
       </c>
       <c r="AS153">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT153">
         <v>1.07</v>
@@ -30845,7 +30869,7 @@
         <v>1</v>
       </c>
       <c r="AS154">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT154">
         <v>1.2</v>
@@ -30949,7 +30973,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31036,7 +31060,7 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT155">
         <v>1.6</v>
@@ -31140,7 +31164,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q156">
         <v>15</v>
@@ -31230,7 +31254,7 @@
         <v>1.6</v>
       </c>
       <c r="AT156">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU156">
         <v>1.56</v>
@@ -31421,7 +31445,7 @@
         <v>1.67</v>
       </c>
       <c r="AT157">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU157">
         <v>1.58</v>
@@ -31609,7 +31633,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT158">
         <v>1.07</v>
@@ -31713,7 +31737,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31904,7 +31928,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31994,7 +32018,7 @@
         <v>1.2</v>
       </c>
       <c r="AT160">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU160">
         <v>1.46</v>
@@ -32095,7 +32119,7 @@
         <v>97</v>
       </c>
       <c r="P161" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32286,7 +32310,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32376,7 +32400,7 @@
         <v>1.27</v>
       </c>
       <c r="AT162">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU162">
         <v>1.53</v>
@@ -32564,7 +32588,7 @@
         <v>2.3</v>
       </c>
       <c r="AS163">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT163">
         <v>1.6</v>
@@ -32755,10 +32779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT164">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU164">
         <v>1.28</v>
@@ -32946,10 +32970,10 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU165">
         <v>1.84</v>
@@ -33050,7 +33074,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33137,7 +33161,7 @@
         <v>0.55</v>
       </c>
       <c r="AS166">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT166">
         <v>0.73</v>
@@ -33241,7 +33265,7 @@
         <v>190</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33432,7 +33456,7 @@
         <v>202</v>
       </c>
       <c r="P168" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q168">
         <v>8</v>
@@ -33522,7 +33546,7 @@
         <v>1.53</v>
       </c>
       <c r="AT168">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU168">
         <v>1.61</v>
@@ -33623,7 +33647,7 @@
         <v>178</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33710,7 +33734,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT169">
         <v>1.2</v>
@@ -33814,7 +33838,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33901,7 +33925,7 @@
         <v>0.9</v>
       </c>
       <c r="AS170">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.07</v>
@@ -34005,7 +34029,7 @@
         <v>97</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34196,7 +34220,7 @@
         <v>204</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34283,7 +34307,7 @@
         <v>2</v>
       </c>
       <c r="AS172">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT172">
         <v>1.47</v>
@@ -34477,7 +34501,7 @@
         <v>1.4</v>
       </c>
       <c r="AT173">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU173">
         <v>1.75</v>
@@ -34578,7 +34602,7 @@
         <v>205</v>
       </c>
       <c r="P174" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34668,7 +34692,7 @@
         <v>1.27</v>
       </c>
       <c r="AT174">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU174">
         <v>1.51</v>
@@ -34769,7 +34793,7 @@
         <v>97</v>
       </c>
       <c r="P175" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q175">
         <v>1</v>
@@ -34960,7 +34984,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -35047,7 +35071,7 @@
         <v>1.82</v>
       </c>
       <c r="AS176">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT176">
         <v>1.53</v>
@@ -35151,7 +35175,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35241,7 +35265,7 @@
         <v>1.6</v>
       </c>
       <c r="AT177">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU177">
         <v>1.6</v>
@@ -35429,7 +35453,7 @@
         <v>1.08</v>
       </c>
       <c r="AS178">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35533,7 +35557,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35620,7 +35644,7 @@
         <v>1.82</v>
       </c>
       <c r="AS179">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT179">
         <v>1.47</v>
@@ -35811,7 +35835,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
         <v>1.07</v>
@@ -35915,7 +35939,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -36193,10 +36217,10 @@
         <v>0.6</v>
       </c>
       <c r="AS182">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT182">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU182">
         <v>1.79</v>
@@ -36297,7 +36321,7 @@
         <v>211</v>
       </c>
       <c r="P183" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36387,7 +36411,7 @@
         <v>1.6</v>
       </c>
       <c r="AT183">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU183">
         <v>1.57</v>
@@ -36679,7 +36703,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>12</v>
@@ -36769,7 +36793,7 @@
         <v>1.67</v>
       </c>
       <c r="AT185">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU185">
         <v>1.57</v>
@@ -36870,7 +36894,7 @@
         <v>214</v>
       </c>
       <c r="P186" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36960,7 +36984,7 @@
         <v>1.27</v>
       </c>
       <c r="AT186">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU186">
         <v>1.48</v>
@@ -37252,7 +37276,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37339,7 +37363,7 @@
         <v>1.36</v>
       </c>
       <c r="AS188">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
         <v>1.6</v>
@@ -37443,7 +37467,7 @@
         <v>216</v>
       </c>
       <c r="P189" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37721,7 +37745,7 @@
         <v>1.67</v>
       </c>
       <c r="AS190">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT190">
         <v>1.53</v>
@@ -37912,10 +37936,10 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT191">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.45</v>
@@ -38016,7 +38040,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38103,10 +38127,10 @@
         <v>0.73</v>
       </c>
       <c r="AS192">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT192">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU192">
         <v>1.33</v>
@@ -38207,7 +38231,7 @@
         <v>220</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38297,7 +38321,7 @@
         <v>1.27</v>
       </c>
       <c r="AT193">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU193">
         <v>1.5</v>
@@ -38398,7 +38422,7 @@
         <v>97</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>8</v>
@@ -38679,7 +38703,7 @@
         <v>1.2</v>
       </c>
       <c r="AT195">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38780,7 +38804,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q196">
         <v>13</v>
@@ -38867,10 +38891,10 @@
         <v>0.55</v>
       </c>
       <c r="AS196">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT196">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU196">
         <v>1.31</v>
@@ -39058,7 +39082,7 @@
         <v>1.92</v>
       </c>
       <c r="AS197">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT197">
         <v>1.6</v>
@@ -39162,7 +39186,7 @@
         <v>97</v>
       </c>
       <c r="P198" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39544,7 +39568,7 @@
         <v>151</v>
       </c>
       <c r="P200" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39822,7 +39846,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT201">
         <v>1.6</v>
@@ -39926,7 +39950,7 @@
         <v>224</v>
       </c>
       <c r="P202" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40013,10 +40037,10 @@
         <v>0.67</v>
       </c>
       <c r="AS202">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT202">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU202">
         <v>1.76</v>
@@ -40117,7 +40141,7 @@
         <v>225</v>
       </c>
       <c r="P203" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -40204,10 +40228,10 @@
         <v>1.5</v>
       </c>
       <c r="AS203">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT203">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU203">
         <v>1.46</v>
@@ -40395,7 +40419,7 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40586,10 +40610,10 @@
         <v>1.25</v>
       </c>
       <c r="AS205">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT205">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU205">
         <v>1.78</v>
@@ -40690,7 +40714,7 @@
         <v>97</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40777,10 +40801,10 @@
         <v>0.92</v>
       </c>
       <c r="AS206">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT206">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU206">
         <v>1.57</v>
@@ -40881,7 +40905,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40971,7 +40995,7 @@
         <v>1.4</v>
       </c>
       <c r="AT207">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU207">
         <v>1.72</v>
@@ -41072,7 +41096,7 @@
         <v>226</v>
       </c>
       <c r="P208" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q208">
         <v>5</v>
@@ -41159,10 +41183,10 @@
         <v>1.83</v>
       </c>
       <c r="AS208">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT208">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU208">
         <v>1.53</v>
@@ -41263,7 +41287,7 @@
         <v>227</v>
       </c>
       <c r="P209" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41350,10 +41374,10 @@
         <v>1.08</v>
       </c>
       <c r="AS209">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT209">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU209">
         <v>1.83</v>
@@ -41454,7 +41478,7 @@
         <v>97</v>
       </c>
       <c r="P210" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41645,7 +41669,7 @@
         <v>110</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41836,7 +41860,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42305,7 +42329,7 @@
         <v>1</v>
       </c>
       <c r="AS214">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT214">
         <v>1.07</v>
@@ -42409,7 +42433,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42600,7 +42624,7 @@
         <v>229</v>
       </c>
       <c r="P216" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q216">
         <v>2</v>
@@ -43069,10 +43093,10 @@
         <v>1.38</v>
       </c>
       <c r="AS218">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT218">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU218">
         <v>1.56</v>
@@ -43260,10 +43284,10 @@
         <v>1.08</v>
       </c>
       <c r="AS219">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT219">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU219">
         <v>1.28</v>
@@ -43364,7 +43388,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -43451,10 +43475,10 @@
         <v>1.23</v>
       </c>
       <c r="AS220">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT220">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU220">
         <v>1.76</v>
@@ -43642,10 +43666,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT221">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU221">
         <v>1.77</v>
@@ -43746,7 +43770,7 @@
         <v>190</v>
       </c>
       <c r="P222" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -43833,10 +43857,10 @@
         <v>1.38</v>
       </c>
       <c r="AS222">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT222">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU222">
         <v>1.49</v>
@@ -43937,7 +43961,7 @@
         <v>233</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -44024,10 +44048,10 @@
         <v>0.62</v>
       </c>
       <c r="AS223">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT223">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU223">
         <v>1.56</v>
@@ -44128,7 +44152,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44215,10 +44239,10 @@
         <v>1.77</v>
       </c>
       <c r="AS224">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT224">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU224">
         <v>1.73</v>
@@ -44406,7 +44430,7 @@
         <v>1.08</v>
       </c>
       <c r="AS225">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT225">
         <v>1.07</v>
@@ -44701,7 +44725,7 @@
         <v>97</v>
       </c>
       <c r="P227" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -45083,7 +45107,7 @@
         <v>237</v>
       </c>
       <c r="P229" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45465,7 +45489,7 @@
         <v>239</v>
       </c>
       <c r="P231" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q231">
         <v>7</v>
@@ -45656,7 +45680,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -45847,7 +45871,7 @@
         <v>241</v>
       </c>
       <c r="P233" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -45989,6 +46013,1534 @@
       </c>
       <c r="BK233">
         <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1568890</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>66</v>
+      </c>
+      <c r="H234" t="s">
+        <v>72</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>242</v>
+      </c>
+      <c r="P234" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q234">
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <v>4</v>
+      </c>
+      <c r="S234">
+        <v>8</v>
+      </c>
+      <c r="T234">
+        <v>2.67</v>
+      </c>
+      <c r="U234">
+        <v>2.43</v>
+      </c>
+      <c r="V234">
+        <v>3.4</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>3.78</v>
+      </c>
+      <c r="Y234">
+        <v>2.18</v>
+      </c>
+      <c r="Z234">
+        <v>1.65</v>
+      </c>
+      <c r="AA234">
+        <v>4.8</v>
+      </c>
+      <c r="AB234">
+        <v>1.17</v>
+      </c>
+      <c r="AC234">
+        <v>1.54</v>
+      </c>
+      <c r="AD234">
+        <v>4.1</v>
+      </c>
+      <c r="AE234">
+        <v>4.8</v>
+      </c>
+      <c r="AF234">
+        <v>1.02</v>
+      </c>
+      <c r="AG234">
+        <v>21</v>
+      </c>
+      <c r="AH234">
+        <v>1.12</v>
+      </c>
+      <c r="AI234">
+        <v>5.1</v>
+      </c>
+      <c r="AJ234">
+        <v>1.5</v>
+      </c>
+      <c r="AK234">
+        <v>2.4</v>
+      </c>
+      <c r="AL234">
+        <v>1.45</v>
+      </c>
+      <c r="AM234">
+        <v>2.69</v>
+      </c>
+      <c r="AN234">
+        <v>1.4</v>
+      </c>
+      <c r="AO234">
+        <v>1.25</v>
+      </c>
+      <c r="AP234">
+        <v>1.66</v>
+      </c>
+      <c r="AQ234">
+        <v>2.5</v>
+      </c>
+      <c r="AR234">
+        <v>1.21</v>
+      </c>
+      <c r="AS234">
+        <v>2.53</v>
+      </c>
+      <c r="AT234">
+        <v>1.13</v>
+      </c>
+      <c r="AU234">
+        <v>1.76</v>
+      </c>
+      <c r="AV234">
+        <v>1.41</v>
+      </c>
+      <c r="AW234">
+        <v>3.17</v>
+      </c>
+      <c r="AX234">
+        <v>1.79</v>
+      </c>
+      <c r="AY234">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234">
+        <v>2.43</v>
+      </c>
+      <c r="BA234">
+        <v>1.17</v>
+      </c>
+      <c r="BB234">
+        <v>1.29</v>
+      </c>
+      <c r="BC234">
+        <v>1.5</v>
+      </c>
+      <c r="BD234">
+        <v>1.95</v>
+      </c>
+      <c r="BE234">
+        <v>2.43</v>
+      </c>
+      <c r="BF234">
+        <v>10</v>
+      </c>
+      <c r="BG234">
+        <v>9</v>
+      </c>
+      <c r="BH234">
+        <v>9</v>
+      </c>
+      <c r="BI234">
+        <v>4</v>
+      </c>
+      <c r="BJ234">
+        <v>19</v>
+      </c>
+      <c r="BK234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1568891</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>75</v>
+      </c>
+      <c r="H235" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>243</v>
+      </c>
+      <c r="P235" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q235">
+        <v>6</v>
+      </c>
+      <c r="R235">
+        <v>11</v>
+      </c>
+      <c r="S235">
+        <v>17</v>
+      </c>
+      <c r="T235">
+        <v>2.68</v>
+      </c>
+      <c r="U235">
+        <v>2.5</v>
+      </c>
+      <c r="V235">
+        <v>3.48</v>
+      </c>
+      <c r="W235">
+        <v>1.26</v>
+      </c>
+      <c r="X235">
+        <v>3.7</v>
+      </c>
+      <c r="Y235">
+        <v>2.26</v>
+      </c>
+      <c r="Z235">
+        <v>1.63</v>
+      </c>
+      <c r="AA235">
+        <v>4.94</v>
+      </c>
+      <c r="AB235">
+        <v>1.16</v>
+      </c>
+      <c r="AC235">
+        <v>1.65</v>
+      </c>
+      <c r="AD235">
+        <v>4.1</v>
+      </c>
+      <c r="AE235">
+        <v>3.95</v>
+      </c>
+      <c r="AF235">
+        <v>1.02</v>
+      </c>
+      <c r="AG235">
+        <v>20.5</v>
+      </c>
+      <c r="AH235">
+        <v>1.14</v>
+      </c>
+      <c r="AI235">
+        <v>5.3</v>
+      </c>
+      <c r="AJ235">
+        <v>1.5</v>
+      </c>
+      <c r="AK235">
+        <v>2.4</v>
+      </c>
+      <c r="AL235">
+        <v>1.48</v>
+      </c>
+      <c r="AM235">
+        <v>2.59</v>
+      </c>
+      <c r="AN235">
+        <v>1.44</v>
+      </c>
+      <c r="AO235">
+        <v>1.26</v>
+      </c>
+      <c r="AP235">
+        <v>1.61</v>
+      </c>
+      <c r="AQ235">
+        <v>1.5</v>
+      </c>
+      <c r="AR235">
+        <v>0.64</v>
+      </c>
+      <c r="AS235">
+        <v>1.47</v>
+      </c>
+      <c r="AT235">
+        <v>0.67</v>
+      </c>
+      <c r="AU235">
+        <v>1.55</v>
+      </c>
+      <c r="AV235">
+        <v>1.36</v>
+      </c>
+      <c r="AW235">
+        <v>2.91</v>
+      </c>
+      <c r="AX235">
+        <v>1.64</v>
+      </c>
+      <c r="AY235">
+        <v>6.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.45</v>
+      </c>
+      <c r="BA235">
+        <v>1.13</v>
+      </c>
+      <c r="BB235">
+        <v>1.23</v>
+      </c>
+      <c r="BC235">
+        <v>1.46</v>
+      </c>
+      <c r="BD235">
+        <v>1.79</v>
+      </c>
+      <c r="BE235">
+        <v>2.19</v>
+      </c>
+      <c r="BF235">
+        <v>9</v>
+      </c>
+      <c r="BG235">
+        <v>8</v>
+      </c>
+      <c r="BH235">
+        <v>9</v>
+      </c>
+      <c r="BI235">
+        <v>11</v>
+      </c>
+      <c r="BJ235">
+        <v>18</v>
+      </c>
+      <c r="BK235">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1568889</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>78</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>120</v>
+      </c>
+      <c r="P236" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q236">
+        <v>9</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>11</v>
+      </c>
+      <c r="T236">
+        <v>1.85</v>
+      </c>
+      <c r="U236">
+        <v>2.64</v>
+      </c>
+      <c r="V236">
+        <v>6.89</v>
+      </c>
+      <c r="W236">
+        <v>1.29</v>
+      </c>
+      <c r="X236">
+        <v>3.46</v>
+      </c>
+      <c r="Y236">
+        <v>2.44</v>
+      </c>
+      <c r="Z236">
+        <v>1.55</v>
+      </c>
+      <c r="AA236">
+        <v>5.45</v>
+      </c>
+      <c r="AB236">
+        <v>1.14</v>
+      </c>
+      <c r="AC236">
+        <v>1.36</v>
+      </c>
+      <c r="AD236">
+        <v>4.6</v>
+      </c>
+      <c r="AE236">
+        <v>7</v>
+      </c>
+      <c r="AF236">
+        <v>1.02</v>
+      </c>
+      <c r="AG236">
+        <v>18</v>
+      </c>
+      <c r="AH236">
+        <v>1.18</v>
+      </c>
+      <c r="AI236">
+        <v>4.48</v>
+      </c>
+      <c r="AJ236">
+        <v>1.6</v>
+      </c>
+      <c r="AK236">
+        <v>2.2</v>
+      </c>
+      <c r="AL236">
+        <v>1.84</v>
+      </c>
+      <c r="AM236">
+        <v>1.93</v>
+      </c>
+      <c r="AN236">
+        <v>1.08</v>
+      </c>
+      <c r="AO236">
+        <v>1.17</v>
+      </c>
+      <c r="AP236">
+        <v>3.25</v>
+      </c>
+      <c r="AQ236">
+        <v>2.07</v>
+      </c>
+      <c r="AR236">
+        <v>1.64</v>
+      </c>
+      <c r="AS236">
+        <v>2.13</v>
+      </c>
+      <c r="AT236">
+        <v>1.53</v>
+      </c>
+      <c r="AU236">
+        <v>1.8</v>
+      </c>
+      <c r="AV236">
+        <v>1.43</v>
+      </c>
+      <c r="AW236">
+        <v>3.23</v>
+      </c>
+      <c r="AX236">
+        <v>1.22</v>
+      </c>
+      <c r="AY236">
+        <v>9.5</v>
+      </c>
+      <c r="AZ236">
+        <v>5.5</v>
+      </c>
+      <c r="BA236">
+        <v>1.22</v>
+      </c>
+      <c r="BB236">
+        <v>1.42</v>
+      </c>
+      <c r="BC236">
+        <v>1.74</v>
+      </c>
+      <c r="BD236">
+        <v>2.23</v>
+      </c>
+      <c r="BE236">
+        <v>3</v>
+      </c>
+      <c r="BF236">
+        <v>2</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>12</v>
+      </c>
+      <c r="BI236">
+        <v>9</v>
+      </c>
+      <c r="BJ236">
+        <v>14</v>
+      </c>
+      <c r="BK236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1568892</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>76</v>
+      </c>
+      <c r="H237" t="s">
+        <v>68</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>97</v>
+      </c>
+      <c r="P237" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q237">
+        <v>11</v>
+      </c>
+      <c r="R237">
+        <v>3</v>
+      </c>
+      <c r="S237">
+        <v>14</v>
+      </c>
+      <c r="T237">
+        <v>2.56</v>
+      </c>
+      <c r="U237">
+        <v>2.28</v>
+      </c>
+      <c r="V237">
+        <v>3.98</v>
+      </c>
+      <c r="W237">
+        <v>1.33</v>
+      </c>
+      <c r="X237">
+        <v>3.2</v>
+      </c>
+      <c r="Y237">
+        <v>2.52</v>
+      </c>
+      <c r="Z237">
+        <v>1.5</v>
+      </c>
+      <c r="AA237">
+        <v>6</v>
+      </c>
+      <c r="AB237">
+        <v>1.11</v>
+      </c>
+      <c r="AC237">
+        <v>1.66</v>
+      </c>
+      <c r="AD237">
+        <v>3.75</v>
+      </c>
+      <c r="AE237">
+        <v>4.3</v>
+      </c>
+      <c r="AF237">
+        <v>1.03</v>
+      </c>
+      <c r="AG237">
+        <v>14.25</v>
+      </c>
+      <c r="AH237">
+        <v>1.22</v>
+      </c>
+      <c r="AI237">
+        <v>3.85</v>
+      </c>
+      <c r="AJ237">
+        <v>1.75</v>
+      </c>
+      <c r="AK237">
+        <v>1.95</v>
+      </c>
+      <c r="AL237">
+        <v>1.62</v>
+      </c>
+      <c r="AM237">
+        <v>2.23</v>
+      </c>
+      <c r="AN237">
+        <v>1.3</v>
+      </c>
+      <c r="AO237">
+        <v>1.27</v>
+      </c>
+      <c r="AP237">
+        <v>1.79</v>
+      </c>
+      <c r="AQ237">
+        <v>1.79</v>
+      </c>
+      <c r="AR237">
+        <v>1.29</v>
+      </c>
+      <c r="AS237">
+        <v>1.67</v>
+      </c>
+      <c r="AT237">
+        <v>1.4</v>
+      </c>
+      <c r="AU237">
+        <v>1.75</v>
+      </c>
+      <c r="AV237">
+        <v>1.55</v>
+      </c>
+      <c r="AW237">
+        <v>3.3</v>
+      </c>
+      <c r="AX237">
+        <v>1.58</v>
+      </c>
+      <c r="AY237">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237">
+        <v>2.9</v>
+      </c>
+      <c r="BA237">
+        <v>1.18</v>
+      </c>
+      <c r="BB237">
+        <v>1.34</v>
+      </c>
+      <c r="BC237">
+        <v>1.6</v>
+      </c>
+      <c r="BD237">
+        <v>2</v>
+      </c>
+      <c r="BE237">
+        <v>2.65</v>
+      </c>
+      <c r="BF237">
+        <v>2</v>
+      </c>
+      <c r="BG237">
+        <v>3</v>
+      </c>
+      <c r="BH237">
+        <v>10</v>
+      </c>
+      <c r="BI237">
+        <v>3</v>
+      </c>
+      <c r="BJ237">
+        <v>12</v>
+      </c>
+      <c r="BK237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1568887</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>70</v>
+      </c>
+      <c r="H238" t="s">
+        <v>77</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>244</v>
+      </c>
+      <c r="P238" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q238">
+        <v>6</v>
+      </c>
+      <c r="R238">
+        <v>8</v>
+      </c>
+      <c r="S238">
+        <v>14</v>
+      </c>
+      <c r="T238">
+        <v>3.07</v>
+      </c>
+      <c r="U238">
+        <v>2.4</v>
+      </c>
+      <c r="V238">
+        <v>3.15</v>
+      </c>
+      <c r="W238">
+        <v>1.33</v>
+      </c>
+      <c r="X238">
+        <v>3.3</v>
+      </c>
+      <c r="Y238">
+        <v>2.47</v>
+      </c>
+      <c r="Z238">
+        <v>1.53</v>
+      </c>
+      <c r="AA238">
+        <v>5.6</v>
+      </c>
+      <c r="AB238">
+        <v>1.13</v>
+      </c>
+      <c r="AC238">
+        <v>2.6</v>
+      </c>
+      <c r="AD238">
+        <v>3.3</v>
+      </c>
+      <c r="AE238">
+        <v>2.41</v>
+      </c>
+      <c r="AF238">
+        <v>1.03</v>
+      </c>
+      <c r="AG238">
+        <v>16.25</v>
+      </c>
+      <c r="AH238">
+        <v>1.18</v>
+      </c>
+      <c r="AI238">
+        <v>4.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.6</v>
+      </c>
+      <c r="AK238">
+        <v>2.2</v>
+      </c>
+      <c r="AL238">
+        <v>1.53</v>
+      </c>
+      <c r="AM238">
+        <v>2.44</v>
+      </c>
+      <c r="AN238">
+        <v>1.52</v>
+      </c>
+      <c r="AO238">
+        <v>1.28</v>
+      </c>
+      <c r="AP238">
+        <v>1.48</v>
+      </c>
+      <c r="AQ238">
+        <v>1.86</v>
+      </c>
+      <c r="AR238">
+        <v>1.36</v>
+      </c>
+      <c r="AS238">
+        <v>1.93</v>
+      </c>
+      <c r="AT238">
+        <v>1.27</v>
+      </c>
+      <c r="AU238">
+        <v>1.26</v>
+      </c>
+      <c r="AV238">
+        <v>1.55</v>
+      </c>
+      <c r="AW238">
+        <v>2.81</v>
+      </c>
+      <c r="AX238">
+        <v>2.18</v>
+      </c>
+      <c r="AY238">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238">
+        <v>1.97</v>
+      </c>
+      <c r="BA238">
+        <v>1.18</v>
+      </c>
+      <c r="BB238">
+        <v>1.3</v>
+      </c>
+      <c r="BC238">
+        <v>1.55</v>
+      </c>
+      <c r="BD238">
+        <v>1.98</v>
+      </c>
+      <c r="BE238">
+        <v>2.5</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>7</v>
+      </c>
+      <c r="BH238">
+        <v>4</v>
+      </c>
+      <c r="BI238">
+        <v>10</v>
+      </c>
+      <c r="BJ238">
+        <v>8</v>
+      </c>
+      <c r="BK238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1568886</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s">
+        <v>73</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>245</v>
+      </c>
+      <c r="P239" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q239">
+        <v>5</v>
+      </c>
+      <c r="R239">
+        <v>5</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
+      <c r="T239">
+        <v>2.52</v>
+      </c>
+      <c r="U239">
+        <v>2.57</v>
+      </c>
+      <c r="V239">
+        <v>3.64</v>
+      </c>
+      <c r="W239">
+        <v>1.26</v>
+      </c>
+      <c r="X239">
+        <v>3.7</v>
+      </c>
+      <c r="Y239">
+        <v>2.15</v>
+      </c>
+      <c r="Z239">
+        <v>1.69</v>
+      </c>
+      <c r="AA239">
+        <v>4.94</v>
+      </c>
+      <c r="AB239">
+        <v>1.16</v>
+      </c>
+      <c r="AC239">
+        <v>1.98</v>
+      </c>
+      <c r="AD239">
+        <v>3.75</v>
+      </c>
+      <c r="AE239">
+        <v>3.05</v>
+      </c>
+      <c r="AF239">
+        <v>1.02</v>
+      </c>
+      <c r="AG239">
+        <v>19.75</v>
+      </c>
+      <c r="AH239">
+        <v>1.15</v>
+      </c>
+      <c r="AI239">
+        <v>5.05</v>
+      </c>
+      <c r="AJ239">
+        <v>1.53</v>
+      </c>
+      <c r="AK239">
+        <v>2.35</v>
+      </c>
+      <c r="AL239">
+        <v>1.54</v>
+      </c>
+      <c r="AM239">
+        <v>2.42</v>
+      </c>
+      <c r="AN239">
+        <v>1.34</v>
+      </c>
+      <c r="AO239">
+        <v>1.24</v>
+      </c>
+      <c r="AP239">
+        <v>1.8</v>
+      </c>
+      <c r="AQ239">
+        <v>1.5</v>
+      </c>
+      <c r="AR239">
+        <v>1.07</v>
+      </c>
+      <c r="AS239">
+        <v>1.6</v>
+      </c>
+      <c r="AT239">
+        <v>1</v>
+      </c>
+      <c r="AU239">
+        <v>1.82</v>
+      </c>
+      <c r="AV239">
+        <v>1.61</v>
+      </c>
+      <c r="AW239">
+        <v>3.43</v>
+      </c>
+      <c r="AX239">
+        <v>1.54</v>
+      </c>
+      <c r="AY239">
+        <v>6</v>
+      </c>
+      <c r="AZ239">
+        <v>2.8</v>
+      </c>
+      <c r="BA239">
+        <v>1.17</v>
+      </c>
+      <c r="BB239">
+        <v>1.29</v>
+      </c>
+      <c r="BC239">
+        <v>1.61</v>
+      </c>
+      <c r="BD239">
+        <v>1.98</v>
+      </c>
+      <c r="BE239">
+        <v>2.41</v>
+      </c>
+      <c r="BF239">
+        <v>6</v>
+      </c>
+      <c r="BG239">
+        <v>3</v>
+      </c>
+      <c r="BH239">
+        <v>5</v>
+      </c>
+      <c r="BI239">
+        <v>7</v>
+      </c>
+      <c r="BJ239">
+        <v>11</v>
+      </c>
+      <c r="BK239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1568888</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>65</v>
+      </c>
+      <c r="H240" t="s">
+        <v>80</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" t="s">
+        <v>147</v>
+      </c>
+      <c r="P240" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q240">
+        <v>7</v>
+      </c>
+      <c r="R240">
+        <v>5</v>
+      </c>
+      <c r="S240">
+        <v>12</v>
+      </c>
+      <c r="T240">
+        <v>2.78</v>
+      </c>
+      <c r="U240">
+        <v>2.32</v>
+      </c>
+      <c r="V240">
+        <v>3.7</v>
+      </c>
+      <c r="W240">
+        <v>1.33</v>
+      </c>
+      <c r="X240">
+        <v>3.27</v>
+      </c>
+      <c r="Y240">
+        <v>2.66</v>
+      </c>
+      <c r="Z240">
+        <v>1.47</v>
+      </c>
+      <c r="AA240">
+        <v>6.25</v>
+      </c>
+      <c r="AB240">
+        <v>1.1</v>
+      </c>
+      <c r="AC240">
+        <v>2.24</v>
+      </c>
+      <c r="AD240">
+        <v>3.45</v>
+      </c>
+      <c r="AE240">
+        <v>2.75</v>
+      </c>
+      <c r="AF240">
+        <v>1.03</v>
+      </c>
+      <c r="AG240">
+        <v>14.25</v>
+      </c>
+      <c r="AH240">
+        <v>1.22</v>
+      </c>
+      <c r="AI240">
+        <v>3.88</v>
+      </c>
+      <c r="AJ240">
+        <v>1.7</v>
+      </c>
+      <c r="AK240">
+        <v>2</v>
+      </c>
+      <c r="AL240">
+        <v>1.66</v>
+      </c>
+      <c r="AM240">
+        <v>2.19</v>
+      </c>
+      <c r="AN240">
+        <v>1.36</v>
+      </c>
+      <c r="AO240">
+        <v>1.28</v>
+      </c>
+      <c r="AP240">
+        <v>1.68</v>
+      </c>
+      <c r="AQ240">
+        <v>1.21</v>
+      </c>
+      <c r="AR240">
+        <v>1.07</v>
+      </c>
+      <c r="AS240">
+        <v>1.2</v>
+      </c>
+      <c r="AT240">
+        <v>1.07</v>
+      </c>
+      <c r="AU240">
+        <v>1.57</v>
+      </c>
+      <c r="AV240">
+        <v>1.36</v>
+      </c>
+      <c r="AW240">
+        <v>2.93</v>
+      </c>
+      <c r="AX240">
+        <v>1.65</v>
+      </c>
+      <c r="AY240">
+        <v>7.5</v>
+      </c>
+      <c r="AZ240">
+        <v>2.75</v>
+      </c>
+      <c r="BA240">
+        <v>1.17</v>
+      </c>
+      <c r="BB240">
+        <v>1.32</v>
+      </c>
+      <c r="BC240">
+        <v>1.58</v>
+      </c>
+      <c r="BD240">
+        <v>2</v>
+      </c>
+      <c r="BE240">
+        <v>2.6</v>
+      </c>
+      <c r="BF240">
+        <v>3</v>
+      </c>
+      <c r="BG240">
+        <v>3</v>
+      </c>
+      <c r="BH240">
+        <v>5</v>
+      </c>
+      <c r="BI240">
+        <v>3</v>
+      </c>
+      <c r="BJ240">
+        <v>8</v>
+      </c>
+      <c r="BK240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1568893</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>69</v>
+      </c>
+      <c r="H241" t="s">
+        <v>67</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>147</v>
+      </c>
+      <c r="P241" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q241">
+        <v>8</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>9</v>
+      </c>
+      <c r="T241">
+        <v>3.31</v>
+      </c>
+      <c r="U241">
+        <v>2.23</v>
+      </c>
+      <c r="V241">
+        <v>3.24</v>
+      </c>
+      <c r="W241">
+        <v>1.38</v>
+      </c>
+      <c r="X241">
+        <v>3.03</v>
+      </c>
+      <c r="Y241">
+        <v>2.89</v>
+      </c>
+      <c r="Z241">
+        <v>1.41</v>
+      </c>
+      <c r="AA241">
+        <v>6.85</v>
+      </c>
+      <c r="AB241">
+        <v>1.09</v>
+      </c>
+      <c r="AC241">
+        <v>2.65</v>
+      </c>
+      <c r="AD241">
+        <v>3.15</v>
+      </c>
+      <c r="AE241">
+        <v>2.45</v>
+      </c>
+      <c r="AF241">
+        <v>1.04</v>
+      </c>
+      <c r="AG241">
+        <v>11.75</v>
+      </c>
+      <c r="AH241">
+        <v>1.27</v>
+      </c>
+      <c r="AI241">
+        <v>3.43</v>
+      </c>
+      <c r="AJ241">
+        <v>1.9</v>
+      </c>
+      <c r="AK241">
+        <v>1.95</v>
+      </c>
+      <c r="AL241">
+        <v>1.72</v>
+      </c>
+      <c r="AM241">
+        <v>2.09</v>
+      </c>
+      <c r="AN241">
+        <v>1.5</v>
+      </c>
+      <c r="AO241">
+        <v>1.3</v>
+      </c>
+      <c r="AP241">
+        <v>1.48</v>
+      </c>
+      <c r="AQ241">
+        <v>1.21</v>
+      </c>
+      <c r="AR241">
+        <v>0.57</v>
+      </c>
+      <c r="AS241">
+        <v>1.33</v>
+      </c>
+      <c r="AT241">
+        <v>0.53</v>
+      </c>
+      <c r="AU241">
+        <v>1.57</v>
+      </c>
+      <c r="AV241">
+        <v>1.43</v>
+      </c>
+      <c r="AW241">
+        <v>3</v>
+      </c>
+      <c r="AX241">
+        <v>1.8</v>
+      </c>
+      <c r="AY241">
+        <v>5.5</v>
+      </c>
+      <c r="AZ241">
+        <v>2.3</v>
+      </c>
+      <c r="BA241">
+        <v>1.21</v>
+      </c>
+      <c r="BB241">
+        <v>1.29</v>
+      </c>
+      <c r="BC241">
+        <v>1.6</v>
+      </c>
+      <c r="BD241">
+        <v>2</v>
+      </c>
+      <c r="BE241">
+        <v>2.39</v>
+      </c>
+      <c r="BF241">
+        <v>6</v>
+      </c>
+      <c r="BG241">
+        <v>2</v>
+      </c>
+      <c r="BH241">
+        <v>6</v>
+      </c>
+      <c r="BI241">
+        <v>6</v>
+      </c>
+      <c r="BJ241">
+        <v>12</v>
+      </c>
+      <c r="BK241">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Superettan_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
